--- a/biology/Botanique/James_Richardson_company/James_Richardson_company.xlsx
+++ b/biology/Botanique/James_Richardson_company/James_Richardson_company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La James Richardson company était une entreprise œuvrant dans la transformation du bois en Gaspésie de 1904 à 1980.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée le 10 décembre 1904, la James Richardson œuvre dans le domaine du bois de fuseau et du bois de construction. Ses capitaux sont britanniques et son premier président est James Russel. La compagnie est propriétaire de trois usines situées à Cap-Chat, Sainte-Anne-des-Monts et Grande-Vallée. 
 Dans les années 1950-1960, la compagnie Richardson embauche 3000 travailleurs forestiers durant quatre mois par année. À son usine de Cap-Chat, elle donne de l'emploi à 250 ouvriers. Elle détient 466 kilomètres carrés de limites à bois dans les cantons de Romieu, Cap-Chat, Dalibaire, Joffre, Faribault et Cherbourg. 
